--- a/TableFSM.xlsx
+++ b/TableFSM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzyzz\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzyzz\Documents\GitHub\EE271Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DBE4C0-1438-455A-8095-D4E502723620}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2622410-9748-4661-A608-A2F6EA87F06A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2706F9CF-28AE-42DA-A6A2-467AA73006E7}"/>
   </bookViews>
@@ -353,13 +353,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -679,7 +679,7 @@
   <dimension ref="A2:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -689,77 +689,77 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="4" t="s">
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -791,15 +791,15 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
       <c r="Q4" t="s">
         <v>1</v>
       </c>
@@ -832,15 +832,15 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
       <c r="Q5" t="s">
         <v>1</v>
       </c>
@@ -873,15 +873,15 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
       <c r="Q6" t="s">
         <v>63</v>
       </c>
@@ -967,17 +967,17 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
+      <c r="J8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
       <c r="Q8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1008,17 +1008,17 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
+      <c r="J9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
       <c r="Q9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1049,17 +1049,17 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
+      <c r="J10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
       <c r="Q10" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1090,17 +1090,17 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
+      <c r="J11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
       <c r="Q11" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1129,17 +1129,17 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
+      <c r="J12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
       <c r="Q12" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1168,17 +1168,17 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
+      <c r="J13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
       <c r="Q13" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1207,17 +1207,17 @@
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
+      <c r="J14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
       <c r="Q14" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1248,15 +1248,15 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
+      <c r="J15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
       <c r="Q15" t="s">
         <v>67</v>
       </c>
@@ -1268,22 +1268,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J5:P5"/>
     <mergeCell ref="J12:P12"/>
     <mergeCell ref="J13:P13"/>
     <mergeCell ref="J14:P14"/>
     <mergeCell ref="J15:P15"/>
     <mergeCell ref="J6:P6"/>
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="J5:P5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TableFSM.xlsx
+++ b/TableFSM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzyzz\Documents\GitHub\EE271Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2622410-9748-4661-A608-A2F6EA87F06A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1D7CA4-3BC6-4293-9C01-3242EBB7751D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2706F9CF-28AE-42DA-A6A2-467AA73006E7}"/>
+    <workbookView xWindow="28680" yWindow="2460" windowWidth="24240" windowHeight="13740" xr2:uid="{2706F9CF-28AE-42DA-A6A2-467AA73006E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -179,10 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -290,6 +286,10 @@
   </si>
   <si>
     <t>S11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS_out</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -356,10 +356,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -679,7 +679,7 @@
   <dimension ref="A2:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -689,40 +689,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5" t="s">
+      <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="3" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="3" t="s">
         <v>35</v>
       </c>
@@ -736,31 +736,31 @@
         <v>38</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -774,32 +774,32 @@
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
       <c r="Q4" t="s">
         <v>1</v>
       </c>
@@ -815,32 +815,32 @@
         <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+      <c r="J5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
       <c r="Q5" t="s">
         <v>1</v>
       </c>
@@ -856,34 +856,34 @@
         <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
+      <c r="J6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
       <c r="Q6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -897,28 +897,28 @@
         <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" t="s">
         <v>61</v>
-      </c>
-      <c r="K7" t="s">
-        <v>62</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>6</v>
@@ -936,7 +936,7 @@
         <v>10</v>
       </c>
       <c r="Q7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -950,34 +950,34 @@
         <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
+      <c r="J8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
       <c r="Q8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -991,34 +991,34 @@
         <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
+      <c r="J9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
       <c r="Q9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1032,34 +1032,34 @@
         <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
+      <c r="J10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
       <c r="Q10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1073,34 +1073,34 @@
         <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
+      <c r="J11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
       <c r="Q11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1112,34 +1112,34 @@
         <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
+      <c r="J12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
       <c r="Q12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1151,34 +1151,34 @@
         <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
+      <c r="J13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
       <c r="Q13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1190,34 +1190,34 @@
         <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
+      <c r="J14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
       <c r="Q14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1231,59 +1231,59 @@
         <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
+      <c r="J15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
       <c r="Q15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="5:5">
       <c r="E18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J5:P5"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="J2:P2"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="J6:P6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
